--- a/data/metadata/Informe-01-080101-010100-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010100-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -49,15 +49,12 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:energia-renovable</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
+    <t>iaest-measure:energia-renovable</t>
+  </si>
+  <si>
     <t>iaest-measure:explotaciones</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-energia-renovable.xlsx</t>
   </si>
 </sst>
 </file>
@@ -188,19 +185,19 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -208,31 +205,31 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -240,16 +237,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -273,9 +270,6 @@
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-080101-010100-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010100-A-TC-TM-TP.xlsx
@@ -11,50 +11,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>energia-renovable</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>explotaciones</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Energía renovable</t>
+  </si>
+  <si>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Explotaciones</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:energia-renovable</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:energia-renovable</t>
-  </si>
-  <si>
     <t>iaest-measure:explotaciones</t>
   </si>
   <si>
@@ -64,22 +61,22 @@
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -182,94 +179,89 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
